--- a/New/ExcelToCSV/Table/Builds.xlsx
+++ b/New/ExcelToCSV/Table/Builds.xlsx
@@ -32,7 +32,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,6 +129,75 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1060">
   <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>建筑类型</t>
+  </si>
+  <si>
+    <t>前置建筑要求</t>
+  </si>
+  <si>
+    <t>道具要求</t>
+  </si>
+  <si>
+    <t>粮食</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>木头</t>
+  </si>
+  <si>
+    <t>铁矿</t>
+  </si>
+  <si>
+    <t>时长s</t>
+  </si>
+  <si>
+    <t>战斗力</t>
+  </si>
+  <si>
+    <t>英雄经验</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>拆除时长s</t>
+  </si>
+  <si>
+    <t>建筑效果1</t>
+  </si>
+  <si>
+    <t>建筑效果2</t>
+  </si>
+  <si>
+    <t>建筑效果3</t>
+  </si>
+  <si>
+    <t>建筑效果4</t>
+  </si>
+  <si>
+    <t>建筑效果5</t>
+  </si>
+  <si>
+    <t>建筑效果6</t>
+  </si>
+  <si>
+    <t>额外效果</t>
+  </si>
+  <si>
+    <t>建筑物升级奖励</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -196,75 +265,6 @@
   </si>
   <si>
     <t>reward</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>建筑类型</t>
-  </si>
-  <si>
-    <t>前置建筑要求</t>
-  </si>
-  <si>
-    <t>道具要求</t>
-  </si>
-  <si>
-    <t>粮食</t>
-  </si>
-  <si>
-    <t>石头</t>
-  </si>
-  <si>
-    <t>木头</t>
-  </si>
-  <si>
-    <t>铁矿</t>
-  </si>
-  <si>
-    <t>时长s</t>
-  </si>
-  <si>
-    <t>战斗力</t>
-  </si>
-  <si>
-    <t>英雄经验</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>拆除时长s</t>
-  </si>
-  <si>
-    <t>建筑效果1</t>
-  </si>
-  <si>
-    <t>建筑效果2</t>
-  </si>
-  <si>
-    <t>建筑效果3</t>
-  </si>
-  <si>
-    <t>建筑效果4</t>
-  </si>
-  <si>
-    <t>建筑效果5</t>
-  </si>
-  <si>
-    <t>建筑效果6</t>
-  </si>
-  <si>
-    <t>额外效果</t>
-  </si>
-  <si>
-    <t>建筑物升级奖励</t>
   </si>
   <si>
     <t>int</t>
@@ -4359,7 +4359,7 @@
   <dimension ref="A1:AA323"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4374,9 +4374,10 @@
     <col min="10" max="11" width="14"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
     <col min="15" max="15" width="17.625" customWidth="1"/>
     <col min="16" max="16" width="14.875" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
     <col min="18" max="18" width="11.75" customWidth="1"/>
     <col min="23" max="23" width="27.5" customWidth="1"/>
   </cols>
@@ -4536,7 +4537,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -26102,9 +26103,14 @@
       <c r="Y323" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A304 N1:O304 C1:D304 G1:L304 W1:W304 E4 M4 P4 R4:T4 V4">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+  <conditionalFormatting sqref="E4 M4 P4 R4:T4 V4 C3:D304 C1:D1 G3:L304 G1:L1 N3:O304 N1:O1 W3:W304 W1 A3:A304 A1">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2 C2:D2 G2:L2 N2:O2 W2">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
